--- a/0_Report/Memory.xlsx
+++ b/0_Report/Memory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RAM</t>
   </si>
@@ -32,9 +32,6 @@
     <t>SoftDevice</t>
   </si>
   <si>
-    <t>Zepyhr</t>
-  </si>
-  <si>
     <t>8kBytes</t>
   </si>
   <si>
@@ -42,6 +39,15 @@
   </si>
   <si>
     <t>Flash</t>
+  </si>
+  <si>
+    <t>Zepyhr RTOS</t>
+  </si>
+  <si>
+    <t>47kBytes</t>
+  </si>
+  <si>
+    <t>14kBytes</t>
   </si>
 </sst>
 </file>
@@ -172,32 +178,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +523,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -531,33 +537,37 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="M15" s="3"/>

--- a/0_Report/Memory.xlsx
+++ b/0_Report/Memory.xlsx
@@ -41,13 +41,13 @@
     <t>Flash</t>
   </si>
   <si>
-    <t>Zepyhr RTOS</t>
-  </si>
-  <si>
     <t>47kBytes</t>
   </si>
   <si>
     <t>14kBytes</t>
+  </si>
+  <si>
+    <t>Zephyr RTOS</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="12"/>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="13"/>
     </row>
